--- a/ИС автобусный парк.xlsx
+++ b/ИС автобусный парк.xlsx
@@ -12,13 +12,15 @@
     <sheet name="Транспорт" sheetId="3" r:id="rId3"/>
     <sheet name="Должности" sheetId="4" r:id="rId4"/>
     <sheet name="Маршруты" sheetId="5" r:id="rId5"/>
+    <sheet name="Сотрудник-транспорт" sheetId="6" r:id="rId6"/>
+    <sheet name="Маршрут-транспорт" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Сотрудники</t>
   </si>
@@ -65,9 +67,6 @@
     <t>Наименование должности</t>
   </si>
   <si>
-    <t>Таб номер сотрудника</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -131,15 +130,6 @@
     <t>ПАЗ</t>
   </si>
   <si>
-    <t>Зарплата</t>
-  </si>
-  <si>
-    <t>Номер транспорта</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
     <t>Дербышки</t>
   </si>
   <si>
@@ -158,7 +148,49 @@
     <t>Площадь Тукая</t>
   </si>
   <si>
-    <t>Номер транспорта (1 ко многим)</t>
+    <t>WIN номер</t>
+  </si>
+  <si>
+    <t>Сотрудник-транспорт</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Транспорт-маршрут</t>
+  </si>
+  <si>
+    <t>WIN Номер</t>
+  </si>
+  <si>
+    <t>YZDDFJ8989</t>
+  </si>
+  <si>
+    <t>FHOJJ76651</t>
+  </si>
+  <si>
+    <t>YZDFT69OB</t>
+  </si>
+  <si>
+    <t>X756MP116</t>
+  </si>
+  <si>
+    <t>A422CB116</t>
+  </si>
+  <si>
+    <t>H890KM116</t>
+  </si>
+  <si>
+    <t>1-ый водитель</t>
+  </si>
+  <si>
+    <t>заменяет Махмедова</t>
+  </si>
+  <si>
+    <t>Постоянный</t>
+  </si>
+  <si>
+    <t>На летний период</t>
   </si>
 </sst>
 </file>
@@ -220,18 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -239,8 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,17 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
@@ -593,11 +622,9 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
@@ -607,37 +634,69 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>7</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H6:H7"/>
+  <mergeCells count="3">
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -649,7 +708,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,16 +742,16 @@
         <v>1234</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6">
+        <v>25660</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="8">
-        <v>25660</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,16 +759,16 @@
         <v>1235</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6">
+        <v>23117</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="8">
-        <v>23117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,16 +776,16 @@
         <v>1233</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="6">
+        <v>30337</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="8">
-        <v>30337</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,16 +793,16 @@
         <v>1224</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="6">
+        <v>32349</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="8">
-        <v>32349</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,16 +810,16 @@
         <v>1289</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>26480</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,16 +827,16 @@
         <v>1204</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>32363</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,16 +844,16 @@
         <v>1354</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="6">
+        <v>24208</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="8">
-        <v>24208</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -807,13 +866,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,43 +880,43 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>756</v>
-      </c>
-      <c r="C2">
-        <v>1234</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>544</v>
-      </c>
-      <c r="C3">
-        <v>1289</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>788</v>
-      </c>
-      <c r="C4">
-        <v>1204</v>
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -867,56 +926,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>95000</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -926,10 +969,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +980,9 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,50 +992,155 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1289</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>788</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
